--- a/test/tokens.xlsx
+++ b/test/tokens.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">ROUND</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t xml:space="preserve">AVERAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX</t>
   </si>
 </sst>
 </file>
@@ -66,19 +72,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -325,7 +328,7 @@
   <dimension ref="B2:V14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -361,8 +364,12 @@
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -375,7 +382,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="n">
         <f aca="false">ROUND(B5,2)</f>
         <v>10.24</v>
@@ -408,8 +415,14 @@
         <f aca="false">AVERAGE(I5:I14)</f>
         <v>5.5</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="4" t="n">
+        <f aca="false">MIN(J5:J14)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <f aca="false">MAX(K5:K14)</f>
+        <v>10</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -422,7 +435,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="n">
         <v>10.24</v>
       </c>
@@ -449,8 +462,12 @@
       <c r="I4" s="8" t="n">
         <v>5.5</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -463,7 +480,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="9" t="n">
         <v>10.239584</v>
       </c>
@@ -486,8 +503,12 @@
       <c r="I5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -500,7 +521,7 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="n">
         <v>100</v>
@@ -523,8 +544,12 @@
       <c r="I6" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="J6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -537,7 +562,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -556,8 +581,12 @@
       <c r="I7" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -570,7 +599,7 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -589,8 +618,12 @@
       <c r="I8" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -603,7 +636,7 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -622,8 +655,12 @@
       <c r="I9" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -636,7 +673,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -655,8 +692,12 @@
       <c r="I10" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -669,7 +710,7 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -688,8 +729,12 @@
       <c r="I11" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="J11" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>7</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -702,7 +747,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -721,8 +766,12 @@
       <c r="I12" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -735,7 +784,7 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -754,8 +803,12 @@
       <c r="I13" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="J13" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -768,7 +821,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -787,8 +840,12 @@
       <c r="I14" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>10</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>

--- a/test/tokens.xlsx
+++ b/test/tokens.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">ROUND</t>
   </si>
@@ -44,15 +44,25 @@
   </si>
   <si>
     <t xml:space="preserve">AVERAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -66,19 +76,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -200,7 +207,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -238,6 +245,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -325,7 +340,7 @@
   <dimension ref="B2:V14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -333,6 +348,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="1" width="11.57"/>
   </cols>
   <sheetData>
@@ -361,9 +379,15 @@
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -375,7 +399,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="n">
         <f aca="false">ROUND(B5,2)</f>
         <v>10.24</v>
@@ -408,9 +432,18 @@
         <f aca="false">AVERAGE(I5:I14)</f>
         <v>5.5</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="J3" s="4" t="n">
+        <f aca="false">YEAR(J5)</f>
+        <v>2023</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <f aca="false">MONTH(K5)</f>
+        <v>10</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <f aca="false">DAY(L5)</f>
+        <v>10</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -422,7 +455,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="n">
         <v>10.24</v>
       </c>
@@ -449,9 +482,15 @@
       <c r="I4" s="8" t="n">
         <v>5.5</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="J4" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -463,7 +502,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="9" t="n">
         <v>10.239584</v>
       </c>
@@ -486,9 +525,15 @@
       <c r="I5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="J5" s="10" t="n">
+        <v>45209</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <v>45209</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <v>45209</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -500,7 +545,7 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="n">
         <v>100</v>
@@ -523,9 +568,9 @@
       <c r="I6" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -537,7 +582,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -556,9 +601,9 @@
       <c r="I7" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -570,7 +615,7 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -589,9 +634,9 @@
       <c r="I8" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -603,7 +648,7 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -622,9 +667,9 @@
       <c r="I9" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -636,7 +681,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -655,9 +700,9 @@
       <c r="I10" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -669,7 +714,7 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -688,9 +733,9 @@
       <c r="I11" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -702,7 +747,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -721,9 +766,9 @@
       <c r="I12" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -735,7 +780,7 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -754,9 +799,9 @@
       <c r="I13" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -768,7 +813,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -787,9 +832,9 @@
       <c r="I14" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
